--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_VKR_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6549793F-4070-403E-974F-90670ADCF563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C643F-50A7-4FC9-9A1A-14C3BE590007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15435" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="7620" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
